--- a/app/data/absenteeism_data_14.xlsx
+++ b/app/data/absenteeism_data_14.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87039</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Augusto Gomes</t>
+          <t>Emilly Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,259 +494,259 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>4215.11</v>
+        <v>4437.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92804</v>
+        <v>17239</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. João Vitor Peixoto</t>
+          <t>Davi Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>3546.46</v>
+        <v>11973.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92619</v>
+        <v>81085</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Levi da Rosa</t>
+          <t>Maria Vitória Farias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>5123.61</v>
+        <v>4747.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94683</v>
+        <v>28286</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Julia Rezende</t>
+          <t>Brenda Nascimento</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>11945.83</v>
+        <v>7960.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49268</v>
+        <v>70199</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Otávio Castro</t>
+          <t>Ana Sophia da Mota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>7509.56</v>
+        <v>3845.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22959</v>
+        <v>71223</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Alice Viana</t>
+          <t>Sophie da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>11141.73</v>
+        <v>8614.780000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22135</v>
+        <v>66834</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bianca Lopes</t>
+          <t>Pedro Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>6620.51</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78402</v>
+        <v>12116</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Agatha da Mata</t>
+          <t>Juliana Barros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>5228.4</v>
+        <v>6844.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69604</v>
+        <v>2609</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Camila da Cruz</t>
+          <t>Dra. Ana Beatriz da Cruz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>9146.77</v>
+        <v>2762.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20718</v>
+        <v>48554</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Henrique Aragão</t>
+          <t>Anthony Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>9736.85</v>
+        <v>5636.02</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_14.xlsx
+++ b/app/data/absenteeism_data_14.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47259</v>
+        <v>63385</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brenda Caldeira</t>
+          <t>Helena Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>7247.97</v>
+        <v>7012.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73540</v>
+        <v>92516</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erick Castro</t>
+          <t>Sr. Levi Souza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>4437.15</v>
+        <v>6809.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77104</v>
+        <v>44580</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Alexandre Moura</t>
+          <t>Sr. Luiz Felipe Nogueira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>3500.29</v>
+        <v>12071.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57962</v>
+        <v>11540</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Fernando Souza</t>
+          <t>Clara Pereira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>9368.190000000001</v>
+        <v>10120.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49249</v>
+        <v>15031</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cecília Moraes</t>
+          <t>Dr. Isaac Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>3244.03</v>
+        <v>5710.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40493</v>
+        <v>24468</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Evelyn da Cunha</t>
+          <t>Alice Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>11230.09</v>
+        <v>3668.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60505</v>
+        <v>61205</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bárbara Cunha</t>
+          <t>Luigi Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>7087.06</v>
+        <v>3184.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71331</v>
+        <v>71205</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Esther Pereira</t>
+          <t>Dra. Sabrina Moura</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>2673.6</v>
+        <v>9378.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61144</v>
+        <v>70640</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bárbara Ramos</t>
+          <t>Nina da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>5716.02</v>
+        <v>10960.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72213</v>
+        <v>72039</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Vitor Gabriel Aragão</t>
+          <t>Kaique Farias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>11748.87</v>
+        <v>11753.12</v>
       </c>
     </row>
   </sheetData>
